--- a/presets/107資工組檢核表format.xlsx
+++ b/presets/107資工組檢核表format.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lspss\OneDrive\文件\dinodino revive\dinodino_nirvana\build\web\presets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0583AF3-9BF3-4260-AFCC-2793E1C225D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE48409-27DE-4E70-8378-5B28064F9BBE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="11745" windowHeight="10305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2250" windowWidth="11745" windowHeight="10305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="資訊工程組" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="385">
   <si>
     <t>學年度學期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1623,6 +1623,50 @@
   </si>
   <si>
     <t>&amp;{credit}#5_0_5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;{credit}#4_0_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;{credit}#4_0_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;{credit}#4_0_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;{credit}#4_0_3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;{credit}#4_1_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;{credit}#4_1_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;{credit}#4_2_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;{credit}#4_2_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;{credit}#4_3_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;{credit}#4_3_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;{credit}#4_3_2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2263,7 +2307,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2400,6 +2444,267 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2415,9 +2720,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2436,257 +2738,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3258,8 +3314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G68" sqref="G68"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3275,16 +3331,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24.95" customHeight="1">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
     </row>
     <row r="2" spans="1:8" ht="21.95" customHeight="1">
       <c r="A2" s="12" t="s">
@@ -3323,46 +3379,46 @@
       <c r="A5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="118" t="s">
+      <c r="A6" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="119"/>
-      <c r="C6" s="119"/>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="120"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="67"/>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="121" t="s">
+      <c r="A7" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="121"/>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="121"/>
-      <c r="F7" s="121"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
     </row>
     <row r="8" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A8" s="109" t="s">
+      <c r="A8" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="87" t="s">
+      <c r="B8" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="122"/>
-      <c r="D8" s="122"/>
-      <c r="E8" s="122"/>
-      <c r="F8" s="88"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="72"/>
     </row>
     <row r="9" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A9" s="109"/>
-      <c r="B9" s="87" t="s">
+      <c r="A9" s="69"/>
+      <c r="B9" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="122"/>
-      <c r="D9" s="122"/>
-      <c r="E9" s="122"/>
-      <c r="F9" s="88"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="72"/>
     </row>
     <row r="10" spans="1:8" ht="12" customHeight="1">
       <c r="A10" s="7"/>
@@ -3375,26 +3431,26 @@
       <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="123" t="s">
+      <c r="A11" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="B11" s="112"/>
-      <c r="C11" s="112"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="112"/>
-      <c r="F11" s="112"/>
-      <c r="G11" s="112"/>
-      <c r="H11" s="112"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
     </row>
     <row r="12" spans="1:8" ht="24" customHeight="1" thickBot="1">
-      <c r="A12" s="124" t="s">
+      <c r="A12" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="125"/>
-      <c r="C12" s="130" t="s">
+      <c r="B12" s="75"/>
+      <c r="C12" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="131"/>
+      <c r="D12" s="81"/>
       <c r="E12" s="25" t="s">
         <v>26</v>
       </c>
@@ -3409,12 +3465,12 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A13" s="126"/>
-      <c r="B13" s="127"/>
-      <c r="C13" s="60" t="s">
+      <c r="A13" s="76"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="D13" s="61"/>
+      <c r="D13" s="83"/>
       <c r="E13" s="43" t="s">
         <v>79</v>
       </c>
@@ -3429,12 +3485,12 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A14" s="126"/>
-      <c r="B14" s="127"/>
-      <c r="C14" s="62" t="s">
+      <c r="A14" s="76"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="84" t="s">
         <v>82</v>
       </c>
-      <c r="D14" s="62"/>
+      <c r="D14" s="84"/>
       <c r="E14" s="43" t="s">
         <v>369</v>
       </c>
@@ -3449,12 +3505,12 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A15" s="126"/>
-      <c r="B15" s="127"/>
-      <c r="C15" s="62" t="s">
+      <c r="A15" s="76"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="84" t="s">
         <v>85</v>
       </c>
-      <c r="D15" s="62"/>
+      <c r="D15" s="84"/>
       <c r="E15" s="43" t="s">
         <v>370</v>
       </c>
@@ -3469,12 +3525,12 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A16" s="126"/>
-      <c r="B16" s="127"/>
-      <c r="C16" s="62" t="s">
+      <c r="A16" s="76"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="84" t="s">
         <v>88</v>
       </c>
-      <c r="D16" s="62"/>
+      <c r="D16" s="84"/>
       <c r="E16" s="43" t="s">
         <v>371</v>
       </c>
@@ -3489,12 +3545,12 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A17" s="126"/>
-      <c r="B17" s="127"/>
-      <c r="C17" s="62" t="s">
+      <c r="A17" s="76"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="84" t="s">
         <v>91</v>
       </c>
-      <c r="D17" s="62"/>
+      <c r="D17" s="84"/>
       <c r="E17" s="43" t="s">
         <v>372</v>
       </c>
@@ -3509,12 +3565,12 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A18" s="128"/>
-      <c r="B18" s="129"/>
-      <c r="C18" s="62" t="s">
+      <c r="A18" s="78"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="84" t="s">
         <v>94</v>
       </c>
-      <c r="D18" s="62"/>
+      <c r="D18" s="84"/>
       <c r="E18" s="43" t="s">
         <v>373</v>
       </c>
@@ -3539,26 +3595,26 @@
       <c r="H19" s="7"/>
     </row>
     <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="113" t="s">
+      <c r="A20" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="113"/>
-      <c r="C20" s="113"/>
-      <c r="D20" s="113"/>
-      <c r="E20" s="113"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
     </row>
     <row r="21" spans="1:8" ht="24" customHeight="1" thickBot="1">
-      <c r="A21" s="104" t="s">
+      <c r="A21" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="105"/>
-      <c r="C21" s="104" t="s">
+      <c r="B21" s="56"/>
+      <c r="C21" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="106"/>
+      <c r="D21" s="57"/>
       <c r="E21" s="24" t="s">
         <v>26</v>
       </c>
@@ -3573,14 +3629,14 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A22" s="51" t="s">
+      <c r="A22" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="114"/>
-      <c r="C22" s="89" t="s">
+      <c r="B22" s="59"/>
+      <c r="C22" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="D22" s="90"/>
+      <c r="D22" s="63"/>
       <c r="E22" s="45" t="s">
         <v>98</v>
       </c>
@@ -3590,17 +3646,17 @@
       <c r="G22" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="H22" s="137" t="s">
+      <c r="H22" s="85" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="18.600000000000001" customHeight="1" thickBot="1">
-      <c r="A23" s="115"/>
-      <c r="B23" s="116"/>
-      <c r="C23" s="132" t="s">
+      <c r="A23" s="60"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="88" t="s">
         <v>101</v>
       </c>
-      <c r="D23" s="133"/>
+      <c r="D23" s="89"/>
       <c r="E23" s="6" t="s">
         <v>102</v>
       </c>
@@ -3610,17 +3666,17 @@
       <c r="G23" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="H23" s="138"/>
+      <c r="H23" s="86"/>
     </row>
     <row r="24" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A24" s="51" t="s">
+      <c r="A24" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="114"/>
-      <c r="C24" s="89" t="s">
+      <c r="B24" s="59"/>
+      <c r="C24" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="D24" s="90"/>
+      <c r="D24" s="63"/>
       <c r="E24" s="45" t="s">
         <v>106</v>
       </c>
@@ -3630,15 +3686,15 @@
       <c r="G24" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="H24" s="138"/>
+      <c r="H24" s="86"/>
     </row>
     <row r="25" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A25" s="51"/>
-      <c r="B25" s="114"/>
-      <c r="C25" s="87" t="s">
+      <c r="A25" s="58"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="D25" s="88"/>
+      <c r="D25" s="72"/>
       <c r="E25" s="45" t="s">
         <v>110</v>
       </c>
@@ -3648,15 +3704,15 @@
       <c r="G25" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="H25" s="138"/>
+      <c r="H25" s="86"/>
     </row>
     <row r="26" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A26" s="51"/>
-      <c r="B26" s="114"/>
-      <c r="C26" s="87" t="s">
+      <c r="A26" s="58"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="D26" s="88"/>
+      <c r="D26" s="72"/>
       <c r="E26" s="45" t="s">
         <v>114</v>
       </c>
@@ -3666,15 +3722,15 @@
       <c r="G26" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="H26" s="138"/>
+      <c r="H26" s="86"/>
     </row>
     <row r="27" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A27" s="134"/>
-      <c r="B27" s="135"/>
-      <c r="C27" s="87" t="s">
+      <c r="A27" s="90"/>
+      <c r="B27" s="91"/>
+      <c r="C27" s="70" t="s">
         <v>117</v>
       </c>
-      <c r="D27" s="88"/>
+      <c r="D27" s="72"/>
       <c r="E27" s="42" t="s">
         <v>118</v>
       </c>
@@ -3684,7 +3740,7 @@
       <c r="G27" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="H27" s="139"/>
+      <c r="H27" s="87"/>
     </row>
     <row r="28" spans="1:8" ht="12" customHeight="1">
       <c r="A28" s="7"/>
@@ -3697,26 +3753,26 @@
       <c r="H28" s="7"/>
     </row>
     <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="103" t="s">
+      <c r="A29" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="B29" s="103"/>
-      <c r="C29" s="103"/>
-      <c r="D29" s="103"/>
-      <c r="E29" s="103"/>
-      <c r="F29" s="103"/>
-      <c r="G29" s="103"/>
-      <c r="H29" s="103"/>
+      <c r="B29" s="105"/>
+      <c r="C29" s="105"/>
+      <c r="D29" s="105"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="105"/>
+      <c r="G29" s="105"/>
+      <c r="H29" s="105"/>
     </row>
     <row r="30" spans="1:8" ht="24" customHeight="1" thickBot="1">
-      <c r="A30" s="104" t="s">
+      <c r="A30" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="105"/>
-      <c r="C30" s="104" t="s">
+      <c r="B30" s="56"/>
+      <c r="C30" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="106"/>
+      <c r="D30" s="57"/>
       <c r="E30" s="24" t="s">
         <v>26</v>
       </c>
@@ -3731,16 +3787,16 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A31" s="107" t="s">
+      <c r="A31" s="106" t="s">
         <v>75</v>
       </c>
-      <c r="B31" s="107"/>
-      <c r="C31" s="71" t="s">
+      <c r="B31" s="106"/>
+      <c r="C31" s="109" t="s">
         <v>121</v>
       </c>
-      <c r="D31" s="72"/>
-      <c r="E31" s="43" t="s">
-        <v>122</v>
+      <c r="D31" s="110"/>
+      <c r="E31" s="50" t="s">
+        <v>374</v>
       </c>
       <c r="F31" s="43" t="s">
         <v>123</v>
@@ -3748,19 +3804,19 @@
       <c r="G31" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="H31" s="109" t="s">
+      <c r="H31" s="69" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A32" s="83"/>
-      <c r="B32" s="83"/>
-      <c r="C32" s="62" t="s">
+      <c r="A32" s="107"/>
+      <c r="B32" s="107"/>
+      <c r="C32" s="84" t="s">
         <v>124</v>
       </c>
-      <c r="D32" s="62"/>
-      <c r="E32" s="43" t="s">
-        <v>125</v>
+      <c r="D32" s="84"/>
+      <c r="E32" s="47" t="s">
+        <v>375</v>
       </c>
       <c r="F32" s="43" t="s">
         <v>126</v>
@@ -3768,17 +3824,17 @@
       <c r="G32" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="H32" s="109"/>
+      <c r="H32" s="69"/>
     </row>
     <row r="33" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A33" s="84"/>
-      <c r="B33" s="84"/>
-      <c r="C33" s="62" t="s">
+      <c r="A33" s="93"/>
+      <c r="B33" s="93"/>
+      <c r="C33" s="84" t="s">
         <v>127</v>
       </c>
-      <c r="D33" s="62"/>
-      <c r="E33" s="43" t="s">
-        <v>128</v>
+      <c r="D33" s="84"/>
+      <c r="E33" s="47" t="s">
+        <v>376</v>
       </c>
       <c r="F33" s="43" t="s">
         <v>129</v>
@@ -3786,17 +3842,17 @@
       <c r="G33" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="H33" s="109"/>
+      <c r="H33" s="69"/>
     </row>
     <row r="34" spans="1:8" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A34" s="108"/>
       <c r="B34" s="108"/>
-      <c r="C34" s="110" t="s">
+      <c r="C34" s="111" t="s">
         <v>130</v>
       </c>
-      <c r="D34" s="111"/>
+      <c r="D34" s="112"/>
       <c r="E34" s="6" t="s">
-        <v>131</v>
+        <v>377</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>132</v>
@@ -3804,39 +3860,39 @@
       <c r="G34" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="H34" s="109"/>
+      <c r="H34" s="69"/>
     </row>
     <row r="35" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A35" s="91" t="s">
+      <c r="A35" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="91" t="s">
+      <c r="B35" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="93" t="s">
+      <c r="C35" s="95" t="s">
         <v>133</v>
       </c>
-      <c r="D35" s="94"/>
-      <c r="E35" s="136" t="s">
+      <c r="D35" s="96"/>
+      <c r="E35" s="50" t="s">
+        <v>378</v>
+      </c>
+      <c r="F35" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="G35" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="F35" s="136" t="s">
-        <v>135</v>
-      </c>
-      <c r="G35" s="136" t="s">
-        <v>134</v>
-      </c>
-      <c r="H35" s="109"/>
+      <c r="H35" s="69"/>
     </row>
     <row r="36" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A36" s="84"/>
-      <c r="B36" s="84"/>
-      <c r="C36" s="95" t="s">
+      <c r="A36" s="93"/>
+      <c r="B36" s="93"/>
+      <c r="C36" s="97" t="s">
         <v>136</v>
       </c>
-      <c r="D36" s="96"/>
-      <c r="E36" s="42" t="s">
-        <v>137</v>
+      <c r="D36" s="98"/>
+      <c r="E36" s="48" t="s">
+        <v>379</v>
       </c>
       <c r="F36" s="42" t="s">
         <v>138</v>
@@ -3844,19 +3900,19 @@
       <c r="G36" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="H36" s="109"/>
+      <c r="H36" s="69"/>
     </row>
     <row r="37" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A37" s="84"/>
-      <c r="B37" s="97" t="s">
+      <c r="A37" s="93"/>
+      <c r="B37" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="99" t="s">
+      <c r="C37" s="101" t="s">
         <v>139</v>
       </c>
-      <c r="D37" s="100"/>
+      <c r="D37" s="102"/>
       <c r="E37" s="9" t="s">
-        <v>140</v>
+        <v>380</v>
       </c>
       <c r="F37" s="9" t="s">
         <v>141</v>
@@ -3864,17 +3920,17 @@
       <c r="G37" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="H37" s="109"/>
+      <c r="H37" s="69"/>
     </row>
     <row r="38" spans="1:8" ht="18.600000000000001" customHeight="1" thickBot="1">
-      <c r="A38" s="92"/>
-      <c r="B38" s="98"/>
-      <c r="C38" s="101" t="s">
+      <c r="A38" s="94"/>
+      <c r="B38" s="100"/>
+      <c r="C38" s="103" t="s">
         <v>142</v>
       </c>
-      <c r="D38" s="102"/>
+      <c r="D38" s="104"/>
       <c r="E38" s="30" t="s">
-        <v>143</v>
+        <v>381</v>
       </c>
       <c r="F38" s="30" t="s">
         <v>144</v>
@@ -3882,19 +3938,19 @@
       <c r="G38" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="H38" s="109"/>
+      <c r="H38" s="69"/>
     </row>
     <row r="39" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A39" s="83" t="s">
+      <c r="A39" s="107" t="s">
         <v>69</v>
       </c>
-      <c r="B39" s="83"/>
-      <c r="C39" s="85" t="s">
+      <c r="B39" s="107"/>
+      <c r="C39" s="115" t="s">
         <v>145</v>
       </c>
-      <c r="D39" s="86"/>
-      <c r="E39" s="45" t="s">
-        <v>146</v>
+      <c r="D39" s="116"/>
+      <c r="E39" s="46" t="s">
+        <v>382</v>
       </c>
       <c r="F39" s="45" t="s">
         <v>147</v>
@@ -3902,17 +3958,17 @@
       <c r="G39" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="H39" s="109"/>
+      <c r="H39" s="69"/>
     </row>
     <row r="40" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A40" s="84"/>
-      <c r="B40" s="84"/>
-      <c r="C40" s="87" t="s">
+      <c r="A40" s="93"/>
+      <c r="B40" s="93"/>
+      <c r="C40" s="70" t="s">
         <v>148</v>
       </c>
-      <c r="D40" s="88"/>
-      <c r="E40" s="42" t="s">
-        <v>149</v>
+      <c r="D40" s="72"/>
+      <c r="E40" s="48" t="s">
+        <v>383</v>
       </c>
       <c r="F40" s="42" t="s">
         <v>150</v>
@@ -3920,17 +3976,17 @@
       <c r="G40" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="H40" s="109"/>
+      <c r="H40" s="69"/>
     </row>
     <row r="41" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A41" s="84"/>
-      <c r="B41" s="84"/>
-      <c r="C41" s="87" t="s">
+      <c r="A41" s="93"/>
+      <c r="B41" s="93"/>
+      <c r="C41" s="70" t="s">
         <v>151</v>
       </c>
-      <c r="D41" s="88"/>
-      <c r="E41" s="42" t="s">
-        <v>152</v>
+      <c r="D41" s="72"/>
+      <c r="E41" s="48" t="s">
+        <v>384</v>
       </c>
       <c r="F41" s="42" t="s">
         <v>153</v>
@@ -3938,17 +3994,17 @@
       <c r="G41" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="H41" s="109"/>
+      <c r="H41" s="69"/>
     </row>
     <row r="42" spans="1:8" ht="24.95" customHeight="1" thickBot="1">
-      <c r="A42" s="49" t="s">
+      <c r="A42" s="136" t="s">
         <v>60</v>
       </c>
-      <c r="B42" s="50"/>
-      <c r="C42" s="74" t="s">
+      <c r="B42" s="137"/>
+      <c r="C42" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="D42" s="74"/>
+      <c r="D42" s="117"/>
       <c r="E42" s="25" t="s">
         <v>24</v>
       </c>
@@ -3963,9 +4019,9 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="17.45" customHeight="1">
-      <c r="A43" s="51"/>
-      <c r="B43" s="52"/>
-      <c r="C43" s="53" t="s">
+      <c r="A43" s="58"/>
+      <c r="B43" s="138"/>
+      <c r="C43" s="139" t="s">
         <v>71</v>
       </c>
       <c r="D43" s="31" t="s">
@@ -3985,9 +4041,9 @@
       </c>
     </row>
     <row r="44" spans="1:8" ht="17.45" customHeight="1">
-      <c r="A44" s="51"/>
-      <c r="B44" s="52"/>
-      <c r="C44" s="54"/>
+      <c r="A44" s="58"/>
+      <c r="B44" s="138"/>
+      <c r="C44" s="140"/>
       <c r="D44" s="18" t="s">
         <v>8</v>
       </c>
@@ -4005,9 +4061,9 @@
       </c>
     </row>
     <row r="45" spans="1:8" ht="17.45" customHeight="1">
-      <c r="A45" s="51"/>
-      <c r="B45" s="52"/>
-      <c r="C45" s="54"/>
+      <c r="A45" s="58"/>
+      <c r="B45" s="138"/>
+      <c r="C45" s="140"/>
       <c r="D45" s="18" t="s">
         <v>9</v>
       </c>
@@ -4025,9 +4081,9 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="17.45" customHeight="1">
-      <c r="A46" s="51"/>
-      <c r="B46" s="52"/>
-      <c r="C46" s="54"/>
+      <c r="A46" s="58"/>
+      <c r="B46" s="138"/>
+      <c r="C46" s="140"/>
       <c r="D46" s="18" t="s">
         <v>10</v>
       </c>
@@ -4045,9 +4101,9 @@
       </c>
     </row>
     <row r="47" spans="1:8" ht="17.45" customHeight="1">
-      <c r="A47" s="51"/>
-      <c r="B47" s="52"/>
-      <c r="C47" s="54"/>
+      <c r="A47" s="58"/>
+      <c r="B47" s="138"/>
+      <c r="C47" s="140"/>
       <c r="D47" s="18" t="s">
         <v>11</v>
       </c>
@@ -4065,9 +4121,9 @@
       </c>
     </row>
     <row r="48" spans="1:8" ht="17.45" customHeight="1" thickBot="1">
-      <c r="A48" s="51"/>
-      <c r="B48" s="52"/>
-      <c r="C48" s="55"/>
+      <c r="A48" s="58"/>
+      <c r="B48" s="138"/>
+      <c r="C48" s="141"/>
       <c r="D48" s="33" t="s">
         <v>12</v>
       </c>
@@ -4085,112 +4141,112 @@
       </c>
     </row>
     <row r="49" spans="1:8" ht="17.45" customHeight="1">
-      <c r="A49" s="51"/>
-      <c r="B49" s="52"/>
-      <c r="C49" s="56" t="s">
+      <c r="A49" s="58"/>
+      <c r="B49" s="138"/>
+      <c r="C49" s="142" t="s">
         <v>18</v>
       </c>
-      <c r="D49" s="57"/>
+      <c r="D49" s="143"/>
       <c r="E49" s="23">
         <v>4</v>
       </c>
-      <c r="F49" s="140" t="s">
+      <c r="F49" s="51" t="s">
         <v>221</v>
       </c>
-      <c r="G49" s="140" t="s">
+      <c r="G49" s="51" t="s">
         <v>222</v>
       </c>
-      <c r="H49" s="140" t="s">
+      <c r="H49" s="51" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="17.45" customHeight="1">
-      <c r="A50" s="51"/>
-      <c r="B50" s="52"/>
-      <c r="C50" s="58" t="s">
+      <c r="A50" s="58"/>
+      <c r="B50" s="138"/>
+      <c r="C50" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="D50" s="59"/>
+      <c r="D50" s="114"/>
       <c r="E50" s="10">
         <v>4</v>
       </c>
-      <c r="F50" s="141" t="s">
+      <c r="F50" s="52" t="s">
         <v>173</v>
       </c>
-      <c r="G50" s="141" t="s">
+      <c r="G50" s="52" t="s">
         <v>174</v>
       </c>
-      <c r="H50" s="141" t="s">
+      <c r="H50" s="52" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="17.45" customHeight="1">
-      <c r="A51" s="51"/>
-      <c r="B51" s="52"/>
-      <c r="C51" s="58" t="s">
+      <c r="A51" s="58"/>
+      <c r="B51" s="138"/>
+      <c r="C51" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="D51" s="59"/>
+      <c r="D51" s="114"/>
       <c r="E51" s="10">
         <v>3</v>
       </c>
-      <c r="F51" s="141" t="s">
+      <c r="F51" s="52" t="s">
         <v>176</v>
       </c>
-      <c r="G51" s="141" t="s">
+      <c r="G51" s="52" t="s">
         <v>177</v>
       </c>
-      <c r="H51" s="141" t="s">
+      <c r="H51" s="52" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="17.45" customHeight="1">
-      <c r="A52" s="51"/>
-      <c r="B52" s="52"/>
-      <c r="C52" s="58" t="s">
+      <c r="A52" s="58"/>
+      <c r="B52" s="138"/>
+      <c r="C52" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="D52" s="59"/>
+      <c r="D52" s="114"/>
       <c r="E52" s="10">
         <v>3</v>
       </c>
-      <c r="F52" s="141" t="s">
+      <c r="F52" s="52" t="s">
         <v>179</v>
       </c>
-      <c r="G52" s="141" t="s">
+      <c r="G52" s="52" t="s">
         <v>180</v>
       </c>
-      <c r="H52" s="141" t="s">
+      <c r="H52" s="52" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="17.45" customHeight="1">
-      <c r="A53" s="51"/>
-      <c r="B53" s="52"/>
-      <c r="C53" s="58" t="s">
+      <c r="A53" s="58"/>
+      <c r="B53" s="138"/>
+      <c r="C53" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="D53" s="59"/>
+      <c r="D53" s="114"/>
       <c r="E53" s="10">
         <v>3</v>
       </c>
-      <c r="F53" s="141" t="s">
+      <c r="F53" s="52" t="s">
         <v>182</v>
       </c>
-      <c r="G53" s="141" t="s">
+      <c r="G53" s="52" t="s">
         <v>183</v>
       </c>
-      <c r="H53" s="141" t="s">
+      <c r="H53" s="52" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="17.45" customHeight="1">
-      <c r="A54" s="51"/>
-      <c r="B54" s="52"/>
-      <c r="C54" s="58" t="s">
+      <c r="A54" s="58"/>
+      <c r="B54" s="138"/>
+      <c r="C54" s="113" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="59"/>
+      <c r="D54" s="114"/>
       <c r="E54" s="10">
         <v>3</v>
       </c>
@@ -4205,12 +4261,12 @@
       </c>
     </row>
     <row r="55" spans="1:8" ht="17.45" customHeight="1">
-      <c r="A55" s="51"/>
-      <c r="B55" s="52"/>
-      <c r="C55" s="58" t="s">
+      <c r="A55" s="58"/>
+      <c r="B55" s="138"/>
+      <c r="C55" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="D55" s="59"/>
+      <c r="D55" s="114"/>
       <c r="E55" s="10">
         <v>3</v>
       </c>
@@ -4225,12 +4281,12 @@
       </c>
     </row>
     <row r="56" spans="1:8" ht="17.45" customHeight="1">
-      <c r="A56" s="51"/>
-      <c r="B56" s="52"/>
-      <c r="C56" s="58" t="s">
+      <c r="A56" s="58"/>
+      <c r="B56" s="138"/>
+      <c r="C56" s="113" t="s">
         <v>46</v>
       </c>
-      <c r="D56" s="59"/>
+      <c r="D56" s="114"/>
       <c r="E56" s="10">
         <v>3</v>
       </c>
@@ -4245,12 +4301,12 @@
       </c>
     </row>
     <row r="57" spans="1:8" ht="17.45" customHeight="1">
-      <c r="A57" s="51"/>
-      <c r="B57" s="52"/>
-      <c r="C57" s="58" t="s">
+      <c r="A57" s="58"/>
+      <c r="B57" s="138"/>
+      <c r="C57" s="113" t="s">
         <v>43</v>
       </c>
-      <c r="D57" s="59"/>
+      <c r="D57" s="114"/>
       <c r="E57" s="10">
         <v>3</v>
       </c>
@@ -4265,12 +4321,12 @@
       </c>
     </row>
     <row r="58" spans="1:8" ht="17.45" customHeight="1">
-      <c r="A58" s="51"/>
-      <c r="B58" s="52"/>
-      <c r="C58" s="58" t="s">
+      <c r="A58" s="58"/>
+      <c r="B58" s="138"/>
+      <c r="C58" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="D58" s="59"/>
+      <c r="D58" s="114"/>
       <c r="E58" s="10">
         <v>3</v>
       </c>
@@ -4285,12 +4341,12 @@
       </c>
     </row>
     <row r="59" spans="1:8" ht="17.45" customHeight="1">
-      <c r="A59" s="51"/>
-      <c r="B59" s="52"/>
-      <c r="C59" s="58" t="s">
+      <c r="A59" s="58"/>
+      <c r="B59" s="138"/>
+      <c r="C59" s="113" t="s">
         <v>63</v>
       </c>
-      <c r="D59" s="59"/>
+      <c r="D59" s="114"/>
       <c r="E59" s="10">
         <v>3</v>
       </c>
@@ -4305,12 +4361,12 @@
       </c>
     </row>
     <row r="60" spans="1:8" ht="17.45" customHeight="1">
-      <c r="A60" s="51"/>
-      <c r="B60" s="52"/>
-      <c r="C60" s="58" t="s">
+      <c r="A60" s="58"/>
+      <c r="B60" s="138"/>
+      <c r="C60" s="113" t="s">
         <v>64</v>
       </c>
-      <c r="D60" s="59"/>
+      <c r="D60" s="114"/>
       <c r="E60" s="10">
         <v>3</v>
       </c>
@@ -4325,12 +4381,12 @@
       </c>
     </row>
     <row r="61" spans="1:8" ht="17.45" customHeight="1">
-      <c r="A61" s="51"/>
-      <c r="B61" s="52"/>
-      <c r="C61" s="58" t="s">
+      <c r="A61" s="58"/>
+      <c r="B61" s="138"/>
+      <c r="C61" s="113" t="s">
         <v>65</v>
       </c>
-      <c r="D61" s="59"/>
+      <c r="D61" s="114"/>
       <c r="E61" s="10">
         <v>2</v>
       </c>
@@ -4345,12 +4401,12 @@
       </c>
     </row>
     <row r="62" spans="1:8" ht="17.45" customHeight="1">
-      <c r="A62" s="51"/>
-      <c r="B62" s="52"/>
-      <c r="C62" s="58" t="s">
+      <c r="A62" s="58"/>
+      <c r="B62" s="138"/>
+      <c r="C62" s="113" t="s">
         <v>42</v>
       </c>
-      <c r="D62" s="59"/>
+      <c r="D62" s="114"/>
       <c r="E62" s="10">
         <v>2</v>
       </c>
@@ -4365,12 +4421,12 @@
       </c>
     </row>
     <row r="63" spans="1:8" ht="17.45" customHeight="1">
-      <c r="A63" s="51"/>
-      <c r="B63" s="52"/>
-      <c r="C63" s="58" t="s">
+      <c r="A63" s="58"/>
+      <c r="B63" s="138"/>
+      <c r="C63" s="113" t="s">
         <v>36</v>
       </c>
-      <c r="D63" s="59"/>
+      <c r="D63" s="114"/>
       <c r="E63" s="10">
         <v>3</v>
       </c>
@@ -4385,12 +4441,12 @@
       </c>
     </row>
     <row r="64" spans="1:8" ht="17.45" customHeight="1">
-      <c r="A64" s="51"/>
-      <c r="B64" s="52"/>
-      <c r="C64" s="58" t="s">
+      <c r="A64" s="58"/>
+      <c r="B64" s="138"/>
+      <c r="C64" s="113" t="s">
         <v>41</v>
       </c>
-      <c r="D64" s="59"/>
+      <c r="D64" s="114"/>
       <c r="E64" s="10">
         <v>3</v>
       </c>
@@ -4405,12 +4461,12 @@
       </c>
     </row>
     <row r="65" spans="1:8" ht="17.45" customHeight="1">
-      <c r="A65" s="51"/>
-      <c r="B65" s="52"/>
-      <c r="C65" s="58" t="s">
+      <c r="A65" s="58"/>
+      <c r="B65" s="138"/>
+      <c r="C65" s="113" t="s">
         <v>45</v>
       </c>
-      <c r="D65" s="59"/>
+      <c r="D65" s="114"/>
       <c r="E65" s="10">
         <v>3</v>
       </c>
@@ -4425,12 +4481,12 @@
       </c>
     </row>
     <row r="66" spans="1:8" ht="17.45" customHeight="1">
-      <c r="A66" s="51"/>
-      <c r="B66" s="52"/>
-      <c r="C66" s="58" t="s">
+      <c r="A66" s="58"/>
+      <c r="B66" s="138"/>
+      <c r="C66" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="D66" s="59"/>
+      <c r="D66" s="114"/>
       <c r="E66" s="10">
         <v>0</v>
       </c>
@@ -4445,12 +4501,12 @@
       </c>
     </row>
     <row r="67" spans="1:8" ht="17.45" customHeight="1">
-      <c r="A67" s="51"/>
-      <c r="B67" s="52"/>
-      <c r="C67" s="58" t="s">
+      <c r="A67" s="58"/>
+      <c r="B67" s="138"/>
+      <c r="C67" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="D67" s="59"/>
+      <c r="D67" s="114"/>
       <c r="E67" s="10">
         <v>0</v>
       </c>
@@ -4465,12 +4521,12 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="17.45" customHeight="1">
-      <c r="A68" s="51"/>
-      <c r="B68" s="52"/>
-      <c r="C68" s="58" t="s">
+      <c r="A68" s="58"/>
+      <c r="B68" s="138"/>
+      <c r="C68" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="D68" s="59"/>
+      <c r="D68" s="114"/>
       <c r="E68" s="10">
         <v>0</v>
       </c>
@@ -4485,12 +4541,12 @@
       </c>
     </row>
     <row r="69" spans="1:8" ht="17.45" customHeight="1">
-      <c r="A69" s="51"/>
-      <c r="B69" s="52"/>
-      <c r="C69" s="58" t="s">
+      <c r="A69" s="58"/>
+      <c r="B69" s="138"/>
+      <c r="C69" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="D69" s="59"/>
+      <c r="D69" s="114"/>
       <c r="E69" s="10">
         <v>0</v>
       </c>
@@ -4505,12 +4561,12 @@
       </c>
     </row>
     <row r="70" spans="1:8" ht="17.45" customHeight="1">
-      <c r="A70" s="51"/>
-      <c r="B70" s="52"/>
-      <c r="C70" s="58" t="s">
+      <c r="A70" s="58"/>
+      <c r="B70" s="138"/>
+      <c r="C70" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="D70" s="59"/>
+      <c r="D70" s="114"/>
       <c r="E70" s="10">
         <v>0</v>
       </c>
@@ -4525,12 +4581,12 @@
       </c>
     </row>
     <row r="71" spans="1:8" ht="17.45" customHeight="1">
-      <c r="A71" s="51"/>
-      <c r="B71" s="52"/>
-      <c r="C71" s="58" t="s">
+      <c r="A71" s="58"/>
+      <c r="B71" s="138"/>
+      <c r="C71" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="D71" s="59"/>
+      <c r="D71" s="114"/>
       <c r="E71" s="10">
         <v>0</v>
       </c>
@@ -4545,12 +4601,12 @@
       </c>
     </row>
     <row r="72" spans="1:8" ht="17.45" customHeight="1">
-      <c r="A72" s="51"/>
-      <c r="B72" s="52"/>
-      <c r="C72" s="58" t="s">
+      <c r="A72" s="58"/>
+      <c r="B72" s="138"/>
+      <c r="C72" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="D72" s="59"/>
+      <c r="D72" s="114"/>
       <c r="E72" s="10">
         <v>0</v>
       </c>
@@ -4565,12 +4621,12 @@
       </c>
     </row>
     <row r="73" spans="1:8" ht="17.45" customHeight="1">
-      <c r="A73" s="51"/>
-      <c r="B73" s="52"/>
-      <c r="C73" s="75" t="s">
+      <c r="A73" s="58"/>
+      <c r="B73" s="138"/>
+      <c r="C73" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="D73" s="76"/>
+      <c r="D73" s="145"/>
       <c r="E73" s="17">
         <v>0</v>
       </c>
@@ -4585,14 +4641,14 @@
       </c>
     </row>
     <row r="74" spans="1:8" ht="24" customHeight="1" thickBot="1">
-      <c r="A74" s="77" t="s">
+      <c r="A74" s="119" t="s">
         <v>66</v>
       </c>
-      <c r="B74" s="78"/>
-      <c r="C74" s="73" t="s">
+      <c r="B74" s="120"/>
+      <c r="C74" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="D74" s="73"/>
+      <c r="D74" s="118"/>
       <c r="E74" s="28" t="s">
         <v>26</v>
       </c>
@@ -4607,12 +4663,12 @@
       </c>
     </row>
     <row r="75" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A75" s="79"/>
-      <c r="B75" s="80"/>
-      <c r="C75" s="71" t="s">
+      <c r="A75" s="121"/>
+      <c r="B75" s="122"/>
+      <c r="C75" s="109" t="s">
         <v>248</v>
       </c>
-      <c r="D75" s="72"/>
+      <c r="D75" s="110"/>
       <c r="E75" s="43" t="s">
         <v>249</v>
       </c>
@@ -4622,17 +4678,17 @@
       <c r="G75" s="43" t="s">
         <v>251</v>
       </c>
-      <c r="H75" s="46" t="s">
+      <c r="H75" s="133" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A76" s="79"/>
-      <c r="B76" s="80"/>
-      <c r="C76" s="60" t="s">
+      <c r="A76" s="121"/>
+      <c r="B76" s="122"/>
+      <c r="C76" s="82" t="s">
         <v>252</v>
       </c>
-      <c r="D76" s="61"/>
+      <c r="D76" s="83"/>
       <c r="E76" s="43" t="s">
         <v>253</v>
       </c>
@@ -4642,15 +4698,15 @@
       <c r="G76" s="43" t="s">
         <v>255</v>
       </c>
-      <c r="H76" s="47"/>
+      <c r="H76" s="134"/>
     </row>
     <row r="77" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A77" s="79"/>
-      <c r="B77" s="80"/>
-      <c r="C77" s="60" t="s">
+      <c r="A77" s="121"/>
+      <c r="B77" s="122"/>
+      <c r="C77" s="82" t="s">
         <v>256</v>
       </c>
-      <c r="D77" s="61"/>
+      <c r="D77" s="83"/>
       <c r="E77" s="43" t="s">
         <v>257</v>
       </c>
@@ -4660,15 +4716,15 @@
       <c r="G77" s="43" t="s">
         <v>259</v>
       </c>
-      <c r="H77" s="47"/>
+      <c r="H77" s="134"/>
     </row>
     <row r="78" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A78" s="79"/>
-      <c r="B78" s="80"/>
-      <c r="C78" s="60" t="s">
+      <c r="A78" s="121"/>
+      <c r="B78" s="122"/>
+      <c r="C78" s="82" t="s">
         <v>260</v>
       </c>
-      <c r="D78" s="61"/>
+      <c r="D78" s="83"/>
       <c r="E78" s="43" t="s">
         <v>261</v>
       </c>
@@ -4678,15 +4734,15 @@
       <c r="G78" s="43" t="s">
         <v>263</v>
       </c>
-      <c r="H78" s="47"/>
+      <c r="H78" s="134"/>
     </row>
     <row r="79" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A79" s="79"/>
-      <c r="B79" s="80"/>
-      <c r="C79" s="60" t="s">
+      <c r="A79" s="121"/>
+      <c r="B79" s="122"/>
+      <c r="C79" s="82" t="s">
         <v>264</v>
       </c>
-      <c r="D79" s="61"/>
+      <c r="D79" s="83"/>
       <c r="E79" s="43" t="s">
         <v>265</v>
       </c>
@@ -4696,15 +4752,15 @@
       <c r="G79" s="43" t="s">
         <v>267</v>
       </c>
-      <c r="H79" s="47"/>
+      <c r="H79" s="134"/>
     </row>
     <row r="80" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A80" s="79"/>
-      <c r="B80" s="80"/>
-      <c r="C80" s="60" t="s">
+      <c r="A80" s="121"/>
+      <c r="B80" s="122"/>
+      <c r="C80" s="82" t="s">
         <v>268</v>
       </c>
-      <c r="D80" s="61"/>
+      <c r="D80" s="83"/>
       <c r="E80" s="43" t="s">
         <v>269</v>
       </c>
@@ -4714,15 +4770,15 @@
       <c r="G80" s="43" t="s">
         <v>271</v>
       </c>
-      <c r="H80" s="47"/>
+      <c r="H80" s="134"/>
     </row>
     <row r="81" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A81" s="79"/>
-      <c r="B81" s="80"/>
-      <c r="C81" s="60" t="s">
+      <c r="A81" s="121"/>
+      <c r="B81" s="122"/>
+      <c r="C81" s="82" t="s">
         <v>272</v>
       </c>
-      <c r="D81" s="61"/>
+      <c r="D81" s="83"/>
       <c r="E81" s="43" t="s">
         <v>273</v>
       </c>
@@ -4732,15 +4788,15 @@
       <c r="G81" s="43" t="s">
         <v>275</v>
       </c>
-      <c r="H81" s="47"/>
+      <c r="H81" s="134"/>
     </row>
     <row r="82" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A82" s="79"/>
-      <c r="B82" s="80"/>
-      <c r="C82" s="60" t="s">
+      <c r="A82" s="121"/>
+      <c r="B82" s="122"/>
+      <c r="C82" s="82" t="s">
         <v>276</v>
       </c>
-      <c r="D82" s="61"/>
+      <c r="D82" s="83"/>
       <c r="E82" s="43" t="s">
         <v>277</v>
       </c>
@@ -4750,15 +4806,15 @@
       <c r="G82" s="43" t="s">
         <v>279</v>
       </c>
-      <c r="H82" s="47"/>
+      <c r="H82" s="134"/>
     </row>
     <row r="83" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A83" s="79"/>
-      <c r="B83" s="80"/>
-      <c r="C83" s="60" t="s">
+      <c r="A83" s="121"/>
+      <c r="B83" s="122"/>
+      <c r="C83" s="82" t="s">
         <v>280</v>
       </c>
-      <c r="D83" s="61"/>
+      <c r="D83" s="83"/>
       <c r="E83" s="43" t="s">
         <v>281</v>
       </c>
@@ -4768,15 +4824,15 @@
       <c r="G83" s="43" t="s">
         <v>283</v>
       </c>
-      <c r="H83" s="47"/>
+      <c r="H83" s="134"/>
     </row>
     <row r="84" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A84" s="81"/>
-      <c r="B84" s="82"/>
-      <c r="C84" s="60" t="s">
+      <c r="A84" s="123"/>
+      <c r="B84" s="124"/>
+      <c r="C84" s="82" t="s">
         <v>284</v>
       </c>
-      <c r="D84" s="61"/>
+      <c r="D84" s="83"/>
       <c r="E84" s="43" t="s">
         <v>285</v>
       </c>
@@ -4786,17 +4842,17 @@
       <c r="G84" s="43" t="s">
         <v>287</v>
       </c>
-      <c r="H84" s="48"/>
+      <c r="H84" s="135"/>
     </row>
     <row r="85" spans="1:8" ht="24" customHeight="1" thickBot="1">
-      <c r="A85" s="77" t="s">
+      <c r="A85" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="B85" s="78"/>
-      <c r="C85" s="73" t="s">
+      <c r="B85" s="120"/>
+      <c r="C85" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="D85" s="73"/>
+      <c r="D85" s="118"/>
       <c r="E85" s="28" t="s">
         <v>26</v>
       </c>
@@ -4811,12 +4867,12 @@
       </c>
     </row>
     <row r="86" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A86" s="79"/>
-      <c r="B86" s="80"/>
-      <c r="C86" s="71" t="s">
+      <c r="A86" s="121"/>
+      <c r="B86" s="122"/>
+      <c r="C86" s="109" t="s">
         <v>352</v>
       </c>
-      <c r="D86" s="72"/>
+      <c r="D86" s="110"/>
       <c r="E86" s="43" t="s">
         <v>353</v>
       </c>
@@ -4826,17 +4882,17 @@
       <c r="G86" s="43" t="s">
         <v>355</v>
       </c>
-      <c r="H86" s="46" t="s">
+      <c r="H86" s="133" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A87" s="79"/>
-      <c r="B87" s="80"/>
-      <c r="C87" s="62" t="s">
+      <c r="A87" s="121"/>
+      <c r="B87" s="122"/>
+      <c r="C87" s="84" t="s">
         <v>356</v>
       </c>
-      <c r="D87" s="62"/>
+      <c r="D87" s="84"/>
       <c r="E87" s="43" t="s">
         <v>359</v>
       </c>
@@ -4846,15 +4902,15 @@
       <c r="G87" s="43" t="s">
         <v>361</v>
       </c>
-      <c r="H87" s="47"/>
+      <c r="H87" s="134"/>
     </row>
     <row r="88" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A88" s="79"/>
-      <c r="B88" s="80"/>
-      <c r="C88" s="62" t="s">
+      <c r="A88" s="121"/>
+      <c r="B88" s="122"/>
+      <c r="C88" s="84" t="s">
         <v>357</v>
       </c>
-      <c r="D88" s="62"/>
+      <c r="D88" s="84"/>
       <c r="E88" s="43" t="s">
         <v>362</v>
       </c>
@@ -4864,15 +4920,15 @@
       <c r="G88" s="43" t="s">
         <v>364</v>
       </c>
-      <c r="H88" s="47"/>
+      <c r="H88" s="134"/>
     </row>
     <row r="89" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A89" s="81"/>
-      <c r="B89" s="82"/>
-      <c r="C89" s="62" t="s">
+      <c r="A89" s="123"/>
+      <c r="B89" s="124"/>
+      <c r="C89" s="84" t="s">
         <v>358</v>
       </c>
-      <c r="D89" s="62"/>
+      <c r="D89" s="84"/>
       <c r="E89" s="43" t="s">
         <v>365</v>
       </c>
@@ -4882,26 +4938,26 @@
       <c r="G89" s="43" t="s">
         <v>367</v>
       </c>
-      <c r="H89" s="48"/>
+      <c r="H89" s="135"/>
     </row>
     <row r="90" spans="1:8" ht="12" customHeight="1">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
-      <c r="C90" s="62"/>
-      <c r="D90" s="62"/>
+      <c r="C90" s="84"/>
+      <c r="D90" s="84"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
     </row>
     <row r="91" spans="1:8" ht="24" customHeight="1" thickBot="1">
-      <c r="A91" s="70" t="s">
+      <c r="A91" s="132" t="s">
         <v>55</v>
       </c>
-      <c r="B91" s="70"/>
-      <c r="C91" s="73" t="s">
+      <c r="B91" s="132"/>
+      <c r="C91" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="D91" s="73"/>
+      <c r="D91" s="118"/>
       <c r="E91" s="28" t="s">
         <v>26</v>
       </c>
@@ -4916,12 +4972,12 @@
       </c>
     </row>
     <row r="92" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A92" s="70"/>
-      <c r="B92" s="70"/>
-      <c r="C92" s="71" t="s">
+      <c r="A92" s="132"/>
+      <c r="B92" s="132"/>
+      <c r="C92" s="109" t="s">
         <v>289</v>
       </c>
-      <c r="D92" s="72"/>
+      <c r="D92" s="110"/>
       <c r="E92" s="43" t="s">
         <v>290</v>
       </c>
@@ -4931,17 +4987,17 @@
       <c r="G92" s="43" t="s">
         <v>292</v>
       </c>
-      <c r="H92" s="46" t="s">
+      <c r="H92" s="133" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A93" s="70"/>
-      <c r="B93" s="70"/>
-      <c r="C93" s="60" t="s">
+      <c r="A93" s="132"/>
+      <c r="B93" s="132"/>
+      <c r="C93" s="82" t="s">
         <v>293</v>
       </c>
-      <c r="D93" s="61"/>
+      <c r="D93" s="83"/>
       <c r="E93" s="43" t="s">
         <v>294</v>
       </c>
@@ -4951,15 +5007,15 @@
       <c r="G93" s="43" t="s">
         <v>296</v>
       </c>
-      <c r="H93" s="47"/>
+      <c r="H93" s="134"/>
     </row>
     <row r="94" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A94" s="70"/>
-      <c r="B94" s="70"/>
-      <c r="C94" s="60" t="s">
+      <c r="A94" s="132"/>
+      <c r="B94" s="132"/>
+      <c r="C94" s="82" t="s">
         <v>297</v>
       </c>
-      <c r="D94" s="61"/>
+      <c r="D94" s="83"/>
       <c r="E94" s="43" t="s">
         <v>298</v>
       </c>
@@ -4969,15 +5025,15 @@
       <c r="G94" s="43" t="s">
         <v>300</v>
       </c>
-      <c r="H94" s="47"/>
+      <c r="H94" s="134"/>
     </row>
     <row r="95" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A95" s="70"/>
-      <c r="B95" s="70"/>
-      <c r="C95" s="60" t="s">
+      <c r="A95" s="132"/>
+      <c r="B95" s="132"/>
+      <c r="C95" s="82" t="s">
         <v>301</v>
       </c>
-      <c r="D95" s="61"/>
+      <c r="D95" s="83"/>
       <c r="E95" s="43" t="s">
         <v>302</v>
       </c>
@@ -4987,15 +5043,15 @@
       <c r="G95" s="43" t="s">
         <v>304</v>
       </c>
-      <c r="H95" s="47"/>
+      <c r="H95" s="134"/>
     </row>
     <row r="96" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A96" s="70"/>
-      <c r="B96" s="70"/>
-      <c r="C96" s="60" t="s">
+      <c r="A96" s="132"/>
+      <c r="B96" s="132"/>
+      <c r="C96" s="82" t="s">
         <v>305</v>
       </c>
-      <c r="D96" s="61"/>
+      <c r="D96" s="83"/>
       <c r="E96" s="43" t="s">
         <v>306</v>
       </c>
@@ -5005,15 +5061,15 @@
       <c r="G96" s="43" t="s">
         <v>308</v>
       </c>
-      <c r="H96" s="47"/>
+      <c r="H96" s="134"/>
     </row>
     <row r="97" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A97" s="70"/>
-      <c r="B97" s="70"/>
-      <c r="C97" s="60" t="s">
+      <c r="A97" s="132"/>
+      <c r="B97" s="132"/>
+      <c r="C97" s="82" t="s">
         <v>309</v>
       </c>
-      <c r="D97" s="61"/>
+      <c r="D97" s="83"/>
       <c r="E97" s="43" t="s">
         <v>310</v>
       </c>
@@ -5023,21 +5079,21 @@
       <c r="G97" s="43" t="s">
         <v>312</v>
       </c>
-      <c r="H97" s="48"/>
+      <c r="H97" s="135"/>
     </row>
     <row r="98" spans="1:8" ht="12" customHeight="1">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
     </row>
     <row r="99" spans="1:8" ht="24" customHeight="1" thickBot="1">
-      <c r="A99" s="64" t="s">
+      <c r="A99" s="125" t="s">
         <v>70</v>
       </c>
-      <c r="B99" s="65"/>
-      <c r="C99" s="74" t="s">
+      <c r="B99" s="126"/>
+      <c r="C99" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="D99" s="74"/>
+      <c r="D99" s="117"/>
       <c r="E99" s="25" t="s">
         <v>26</v>
       </c>
@@ -5052,12 +5108,12 @@
       </c>
     </row>
     <row r="100" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A100" s="66"/>
-      <c r="B100" s="67"/>
-      <c r="C100" s="71" t="s">
+      <c r="A100" s="127"/>
+      <c r="B100" s="128"/>
+      <c r="C100" s="109" t="s">
         <v>314</v>
       </c>
-      <c r="D100" s="72"/>
+      <c r="D100" s="110"/>
       <c r="E100" s="43" t="s">
         <v>315</v>
       </c>
@@ -5067,17 +5123,17 @@
       <c r="G100" s="43" t="s">
         <v>317</v>
       </c>
-      <c r="H100" s="63" t="s">
+      <c r="H100" s="131" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A101" s="66"/>
-      <c r="B101" s="67"/>
-      <c r="C101" s="60" t="s">
+      <c r="A101" s="127"/>
+      <c r="B101" s="128"/>
+      <c r="C101" s="82" t="s">
         <v>318</v>
       </c>
-      <c r="D101" s="61"/>
+      <c r="D101" s="83"/>
       <c r="E101" s="43" t="s">
         <v>319</v>
       </c>
@@ -5087,15 +5143,15 @@
       <c r="G101" s="43" t="s">
         <v>321</v>
       </c>
-      <c r="H101" s="63"/>
+      <c r="H101" s="131"/>
     </row>
     <row r="102" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A102" s="66"/>
-      <c r="B102" s="67"/>
-      <c r="C102" s="60" t="s">
+      <c r="A102" s="127"/>
+      <c r="B102" s="128"/>
+      <c r="C102" s="82" t="s">
         <v>322</v>
       </c>
-      <c r="D102" s="61"/>
+      <c r="D102" s="83"/>
       <c r="E102" s="43" t="s">
         <v>323</v>
       </c>
@@ -5105,15 +5161,15 @@
       <c r="G102" s="43" t="s">
         <v>325</v>
       </c>
-      <c r="H102" s="63"/>
+      <c r="H102" s="131"/>
     </row>
     <row r="103" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A103" s="68"/>
-      <c r="B103" s="69"/>
-      <c r="C103" s="60" t="s">
+      <c r="A103" s="129"/>
+      <c r="B103" s="130"/>
+      <c r="C103" s="82" t="s">
         <v>326</v>
       </c>
-      <c r="D103" s="61"/>
+      <c r="D103" s="83"/>
       <c r="E103" s="43" t="s">
         <v>327</v>
       </c>
@@ -5123,21 +5179,21 @@
       <c r="G103" s="43" t="s">
         <v>329</v>
       </c>
-      <c r="H103" s="63"/>
+      <c r="H103" s="131"/>
     </row>
     <row r="104" spans="1:8" ht="12" customHeight="1">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
     </row>
     <row r="105" spans="1:8" ht="24" customHeight="1" thickBot="1">
-      <c r="A105" s="64" t="s">
+      <c r="A105" s="125" t="s">
         <v>56</v>
       </c>
-      <c r="B105" s="65"/>
-      <c r="C105" s="74" t="s">
+      <c r="B105" s="126"/>
+      <c r="C105" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="D105" s="74"/>
+      <c r="D105" s="117"/>
       <c r="E105" s="25" t="s">
         <v>26</v>
       </c>
@@ -5152,12 +5208,12 @@
       </c>
     </row>
     <row r="106" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A106" s="66"/>
-      <c r="B106" s="67"/>
-      <c r="C106" s="60" t="s">
+      <c r="A106" s="127"/>
+      <c r="B106" s="128"/>
+      <c r="C106" s="82" t="s">
         <v>331</v>
       </c>
-      <c r="D106" s="61"/>
+      <c r="D106" s="83"/>
       <c r="E106" s="43" t="s">
         <v>332</v>
       </c>
@@ -5172,12 +5228,12 @@
       </c>
     </row>
     <row r="107" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A107" s="66"/>
-      <c r="B107" s="67"/>
-      <c r="C107" s="60" t="s">
+      <c r="A107" s="127"/>
+      <c r="B107" s="128"/>
+      <c r="C107" s="82" t="s">
         <v>335</v>
       </c>
-      <c r="D107" s="61"/>
+      <c r="D107" s="83"/>
       <c r="E107" s="43" t="s">
         <v>336</v>
       </c>
@@ -5192,12 +5248,12 @@
       </c>
     </row>
     <row r="108" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A108" s="66"/>
-      <c r="B108" s="67"/>
-      <c r="C108" s="60" t="s">
+      <c r="A108" s="127"/>
+      <c r="B108" s="128"/>
+      <c r="C108" s="82" t="s">
         <v>339</v>
       </c>
-      <c r="D108" s="61"/>
+      <c r="D108" s="83"/>
       <c r="E108" s="43" t="s">
         <v>340</v>
       </c>
@@ -5212,12 +5268,12 @@
       </c>
     </row>
     <row r="109" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A109" s="66"/>
-      <c r="B109" s="67"/>
-      <c r="C109" s="60" t="s">
+      <c r="A109" s="127"/>
+      <c r="B109" s="128"/>
+      <c r="C109" s="82" t="s">
         <v>343</v>
       </c>
-      <c r="D109" s="61"/>
+      <c r="D109" s="83"/>
       <c r="E109" s="43" t="s">
         <v>344</v>
       </c>
@@ -5232,12 +5288,12 @@
       </c>
     </row>
     <row r="110" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A110" s="68"/>
-      <c r="B110" s="69"/>
-      <c r="C110" s="60" t="s">
+      <c r="A110" s="129"/>
+      <c r="B110" s="130"/>
+      <c r="C110" s="82" t="s">
         <v>347</v>
       </c>
-      <c r="D110" s="61"/>
+      <c r="D110" s="83"/>
       <c r="E110" s="43" t="s">
         <v>348</v>
       </c>
@@ -5316,10 +5372,10 @@
       </c>
       <c r="B117" s="19"/>
       <c r="C117" s="19"/>
-      <c r="D117" s="112" t="s">
+      <c r="D117" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="E117" s="112"/>
+      <c r="E117" s="53"/>
       <c r="F117" s="19"/>
       <c r="G117" s="19"/>
       <c r="H117" s="19"/>
@@ -5353,6 +5409,102 @@
     <row r="132" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
   <mergeCells count="120">
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="H75:H84"/>
+    <mergeCell ref="H86:H89"/>
+    <mergeCell ref="A42:B73"/>
+    <mergeCell ref="C43:C48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="A99:B103"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="A85:B89"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="H100:H103"/>
+    <mergeCell ref="A105:B110"/>
+    <mergeCell ref="A91:B97"/>
+    <mergeCell ref="H92:H97"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="A39:B41"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="A74:B84"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="A31:B34"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="H31:H41"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C32:D32"/>
     <mergeCell ref="D117:E117"/>
     <mergeCell ref="A20:H20"/>
     <mergeCell ref="A21:B21"/>
@@ -5377,102 +5529,6 @@
     <mergeCell ref="H22:H27"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="A24:B27"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="A31:B34"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="H31:H41"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="A39:B41"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="A74:B84"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="A99:B103"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="A85:B89"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="H100:H103"/>
-    <mergeCell ref="A105:B110"/>
-    <mergeCell ref="A91:B97"/>
-    <mergeCell ref="H92:H97"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="H75:H84"/>
-    <mergeCell ref="H86:H89"/>
-    <mergeCell ref="A42:B73"/>
-    <mergeCell ref="C43:C48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C73:D73"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
